--- a/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="187">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -572,22 +572,22 @@
     <t>http://unitsofmeasure.org</t>
   </si>
   <si>
+    <t>Ratio.denominator.code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/units-of-time</t>
-  </si>
-  <si>
-    <t>Ratio.denominator.code</t>
-  </si>
-  <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
-  </si>
-  <si>
-    <t>d</t>
   </si>
 </sst>
 </file>
@@ -2904,11 +2904,13 @@
         <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>181</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>75</v>
@@ -2949,7 +2951,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2975,13 +2977,13 @@
         <v>120</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="N20" t="s" s="2">
         <v>154</v>
@@ -2991,7 +2993,7 @@
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>75</v>
@@ -3013,7 +3015,7 @@
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="187">
   <si>
     <t>Property</t>
   </si>
@@ -462,12 +462,6 @@
     <t>システムによって定義される単位のコードを把握しておく必要がある。</t>
   </si>
   <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUnitMERIT9_VS</t>
-  </si>
-  <si>
     <t>Quantity.system</t>
   </si>
   <si>
@@ -491,6 +485,12 @@
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationUnitMERIT9_VS</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2066,38 +2066,40 @@
         <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="X11" s="2"/>
-      <c r="Y11" t="s" s="2">
+      <c r="AF11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>116</v>
@@ -2106,12 +2108,12 @@
         <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2137,16 +2139,16 @@
         <v>120</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="M12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>75</v>
@@ -2171,11 +2173,11 @@
         <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>75</v>
@@ -2928,7 +2930,7 @@
         <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>76</v>
@@ -2937,7 +2939,7 @@
         <v>84</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>116</v>
@@ -2946,7 +2948,7 @@
         <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20">
@@ -2986,7 +2988,7 @@
         <v>184</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>75</v>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="152">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.1.2-dev</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-24</t>
+    <t>2023-06-26</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -129,117 +129,6 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -249,16 +138,24 @@
     <t>*</t>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>１日当たりでの薬剤の投入量</t>
   </si>
   <si>
-    <t>The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
+    <t>比率データタイプは、関係を数量と共通単位を使用して適切に表現できない場合にのみ、2つの数値の関係を表現するために使用する必要があります。分母値が「1」に固定されていることが知られている場合、比率ではなく数量を使用する必要があります。 / The Ratio datatype should only be used to express a relationship of two numbers if the relationship cannot be suitably expressed using a Quantity and a common unit.  Where the denominator value is known to be fixed to "1", Quantity should be used instead of Ratio.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rat-1:分子と分母の両方が存在するか、両方が存在します。両方が欠席している場合、いくつかの拡張が存在するものとします / Numerator and denominator SHALL both be present, or both are absent. If both are absent, there SHALL be some extension present {(numerator.empty() xor denominator.exists()) and (numerator.exists() or extension.exists())}</t>
+  </si>
+  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -275,10 +172,10 @@
 </t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -298,13 +195,13 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -320,8 +217,8 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Ratio.numerator</t>
@@ -337,8 +234,8 @@
     <t>薬剤に関する数量と単位を定めている。ValueおよびCodeを必須としている。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:ユニットのコードが存在する場合、システムも存在するものとします / If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}</t>
   </si>
   <si>
     <t>SN (see also Range) or CQ</t>
@@ -366,13 +263,13 @@
     <t>暗示された精度については常に尊重すべきである。貨幣計算では制度に関する独自のルールがある（会計についての標準的な教科書を参照すること）。</t>
   </si>
   <si>
-    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+    <t>精度は、測定のほとんどすべての場合に暗黙的に処理されます。 / Precision is handled implicitly in almost all cases of measurement.</t>
   </si>
   <si>
     <t>Quantity.value</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -401,13 +298,13 @@
     <t>計測法に制限があって値が&lt;5ug/L や &gt;400mg/L として示されるような場合でも値を扱えるようなフレームワークが必要である。</t>
   </si>
   <si>
-    <t>If there is no comparator, then there is no modification of the value</t>
+    <t>コンパレータがない場合、値の変更はありません / If there is no comparator, then there is no modification of the value</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>How the Quantity should be understood and represented.</t>
+    <t>量を理解し、表現する方法。 / How the Quantity should be understood and represented.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
@@ -484,7 +381,7 @@
     <t>単位のコード化された形式、【JP Core仕様】MERIT9医薬品単位略号マスタコードを推奨(**SHOULD**)されるが、ローカルコード等を利用することも可能とする</t>
   </si>
   <si>
-    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+    <t>すべてのフォームに固定されたユニットの計算可能な形式が必要です。UCUMはこれを数量で提供しますが、Snomed CTは多くの関心のある単位を提供します。 / Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -527,19 +424,19 @@
     <t>単位時間(１日)固定</t>
   </si>
   <si>
-    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+    <t>値の暗黙の精度は常に尊重されるべきです。金銭的価値には、精度を処理するための独自のルールがあります（標準的な会計の教科書を参照）。 / The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
   </si>
   <si>
     <t>Ratio.denominator.comparator</t>
   </si>
   <si>
-    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
-  </si>
-  <si>
-    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
-  </si>
-  <si>
-    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+    <t>&lt;|&lt;= |&gt; = |&gt;  - 価値を理解する方法 / &lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>値をどのように理解し、表現する必要があるか - 測定の問題により実際の値が記載されている値よりも大きいか小さいかどうか。例えばコンパレータが「&lt;」の場合、実際の値は&lt;stated値です。 / How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>測定方法の制限があるため、値が&lt;5ug/Lまたは&gt; 400mg/Lの測定値を処理するためのフレームワークが必要です。 / Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
   </si>
   <si>
     <t>Ratio.denominator.unit</t>
@@ -551,7 +448,7 @@
     <t>単位時間の単位。UCUMを使用する。</t>
   </si>
   <si>
-    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+    <t>測定単位には多くの表現があり、多くのコンテキストでは、特定の表現が固定され、必要です。すなわちマイクログラム用MCG。 / There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
     <t>日</t>
@@ -566,7 +463,7 @@
     <t>UCUMを識別するURL。固定値。</t>
   </si>
   <si>
-    <t>Need to know the system that defines the coded form of the unit.</t>
+    <t>ユニットのコード化された形式を定義するシステムを知る必要があります。 / Need to know the system that defines the coded form of the unit.</t>
   </si>
   <si>
     <t>http://unitsofmeasure.org</t>
@@ -575,13 +472,13 @@
     <t>Ratio.denominator.code</t>
   </si>
   <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
-  </si>
-  <si>
-    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+    <t>ユニットのコード化された形式 / Coded form of the unit</t>
+  </si>
+  <si>
+    <t>一部のユニット表現システムのユニットのコンピューター処理可能な形式。 / A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>優先システムはUCUMですが、独自の単位にはSNOMED-CT、または通貨にISO 4217を使用することもできます。使用のコンテキストには、特定のシステムからのコードがさらに必要になる場合があります。 / The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>d</t>
@@ -709,10 +606,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -894,7 +791,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AL19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -904,2156 +801,2099 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="29.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.3828125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.0078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="226.484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="54.0859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="57.89453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.89453125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="68.94921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.29296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="68.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>39</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="M1" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="N1" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="H1" t="s" s="1">
+      <c r="AJ1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="I1" t="s" s="1">
+      <c r="AK1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="J1" t="s" s="1">
+      <c r="AL1" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>73</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>81</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>82</v>
+        <v>38</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>89</v>
+        <v>71</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>38</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>105</v>
+        <v>38</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>106</v>
+        <v>38</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>107</v>
+        <v>38</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N6" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F7" t="s" s="2">
+      <c r="K7" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="L7" t="s" s="2">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N7" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="N7" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="O7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
         <v>84</v>
       </c>
+      <c r="B8" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P8" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="P8" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Q8" t="s" s="2">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>118</v>
+        <v>95</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G9" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="I9" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J9" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="K9" t="s" s="2">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="Q9" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I10" t="s" s="2">
+      <c r="K10" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="P10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF10" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH10" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI10" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="J10" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG10" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH10" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI10" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AJ10" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>138</v>
+        <v>102</v>
+      </c>
+      <c r="AL10" t="s" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J11" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P11" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y11" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="Y11" s="2"/>
       <c r="Z11" t="s" s="2">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>147</v>
+        <v>102</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O12" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>154</v>
+        <v>38</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>155</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>38</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>52</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>157</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>38</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>89</v>
+        <v>38</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J15" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F15" t="s" s="2">
+      <c r="K15" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="J15" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K15" t="s" s="2">
-        <v>93</v>
-      </c>
       <c r="L15" t="s" s="2">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="O15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="P15" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>97</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>83</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F16" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>164</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P16" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="P16" t="s" s="2">
+        <v>38</v>
+      </c>
       <c r="Q16" t="s" s="2">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>115</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>118</v>
+        <v>95</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>96</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>120</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" t="s" s="2">
-        <v>170</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>75</v>
+        <v>139</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="Q17" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>131</v>
+        <v>102</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>103</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I18" t="s" s="2">
+      <c r="K18" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI18" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="J18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="R18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AJ18" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>138</v>
+        <v>102</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>112</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>140</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>177</v>
+        <v>85</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N19" t="s" s="2">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="P19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>137</v>
+        <v>81</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="R20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="X20" s="2"/>
-      <c r="Y20" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>156</v>
+        <v>102</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="190">
   <si>
     <t>Property</t>
   </si>
@@ -127,6 +127,120 @@
   </si>
   <si>
     <t>constraint</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: HL7 v2 Mapping</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -791,7 +905,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL19"/>
+  <dimension ref="A1:AL20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -802,11 +916,13 @@
   <cols>
     <col min="1" max="1" width="29.3828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.3828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="72.0078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -817,2083 +933,2198 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="9.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="57.89453125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="20.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" hidden="true" width="8.0" customWidth="false"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.29296875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="68.94921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="M1" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="N1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>43</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="G1" t="s" s="1">
         <v>44</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="H1" t="s" s="1">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="I1" t="s" s="1">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="J1" t="s" s="1">
         <v>47</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N2" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="N2" t="s" s="2">
+        <v>81</v>
+      </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>50</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="N5" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="O7" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>84</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s" s="2">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="P8" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q8" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="P9" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q9" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="R9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="Y11" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>76</v>
+      </c>
       <c r="Z11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AA11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="AK11" t="s" s="2">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>121</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s" s="2">
         <v>123</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="P12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y12" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="Y12" s="2"/>
       <c r="Z12" t="s" s="2">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>125</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>50</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>51</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>53</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>54</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>127</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>59</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>60</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>54</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="O16" t="s" s="2">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="P16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q16" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>38</v>
+        <v>114</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>139</v>
+        <v>173</v>
       </c>
       <c r="P17" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="Q17" t="s" s="2">
+        <v>128</v>
+      </c>
       <c r="R17" t="s" s="2">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>38</v>
+        <v>130</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>103</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>141</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>143</v>
+        <v>176</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="P18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>112</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>147</v>
+        <v>180</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>149</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="P19" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="S19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>121</v>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y20" s="2"/>
+      <c r="Z20" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-medicationratio-doseperday.xlsx
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
